--- a/dummy tablename.xlsx
+++ b/dummy tablename.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MadaraUchiha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF8FAE5-AFBB-4804-A1C5-C8EBF37CC41C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391F350D-FBB1-4044-9289-BF9E2CCF172C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{73E4195C-F771-4EA8-9617-A968EC85BB4C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{73E4195C-F771-4EA8-9617-A968EC85BB4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Table wise splite" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="228">
   <si>
     <t>File</t>
   </si>
@@ -884,7 +884,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -949,9 +949,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3984,8 +3981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2455CC3E-19F2-4D7D-82DE-8C93C826385F}">
   <dimension ref="A1:C171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="K74" sqref="K74"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101:C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4564,7 +4561,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="9"/>
       <c r="B78" s="4" t="s">
         <v>73</v>
@@ -4573,7 +4570,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="9"/>
       <c r="B79" s="4"/>
       <c r="C79" s="16" t="s">
@@ -4732,7 +4729,7 @@
         <v>75</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -5309,10 +5306,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D14716-A505-4C5D-8A9E-27D717C1060C}">
-  <dimension ref="A1:B96"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="G99" sqref="G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5864,33 +5861,127 @@
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="25"/>
+      <c r="A89" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="25"/>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="25"/>
+      <c r="A90" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="B91" s="16" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="25"/>
+      <c r="A92" s="4"/>
+      <c r="B92" s="15" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="25"/>
+      <c r="A93" s="4"/>
+      <c r="B93" s="15" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="25"/>
+      <c r="A94" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="25"/>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="25"/>
+      <c r="A95" s="4"/>
+      <c r="B95" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A96" s="4"/>
+      <c r="B96" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B98" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A99" s="4"/>
+      <c r="B99" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="4"/>
+      <c r="B100" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="4"/>
+      <c r="B102" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B104" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B105" s="15" t="s">
+        <v>143</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="11">
     <mergeCell ref="A83:A84"/>
     <mergeCell ref="A85:A88"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="A101:A102"/>
     <mergeCell ref="A33:A57"/>
     <mergeCell ref="A58:A78"/>
     <mergeCell ref="A79:A82"/>
@@ -5903,25 +5994,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D287CA-0904-40DD-BBF1-D13FA8E3C425}">
-  <dimension ref="A5:B22"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B4"/>
+      <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.42578125" customWidth="1"/>
-    <col min="2" max="2" width="42" customWidth="1"/>
+    <col min="1" max="1" width="67.85546875" customWidth="1"/>
+    <col min="2" max="2" width="84" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="10"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
